--- a/Meeting_Materials/Jayden_Yap_Jia_Yu_Application_to_Employ_Research_Assistants_Form.xlsx
+++ b/Meeting_Materials/Jayden_Yap_Jia_Yu_Application_to_Employ_Research_Assistants_Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albertlor\Academic\URECA\Meeting_Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDFD652-1DCF-4B90-8642-9F7F08513039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B17B42-DACD-41D0-AB89-70B5C8735AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2800" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,15 +513,72 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -529,63 +586,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -953,40 +953,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="53"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="39"/>
       <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="39"/>
       <c r="O2" s="40"/>
       <c r="P2" s="12"/>
@@ -1012,34 +1012,34 @@
         <v>0</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -1066,28 +1066,28 @@
         <v>12</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="16"/>
       <c r="C8" s="15"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1096,39 +1096,39 @@
         <v>2</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="61">
-        <v>44932</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
+      <c r="D9" s="57">
+        <v>45078</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="63" t="s">
+      <c r="K9" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="60"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="K10" s="50" t="s">
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="K10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="50"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.3">
@@ -1137,12 +1137,12 @@
         <v>4</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="G11" s="43">
-        <v>18.375</v>
-      </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="G11" s="41">
+        <v>36.75</v>
+      </c>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1221,10 +1221,10 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="64">
+      <c r="H16" s="60">
         <v>147</v>
       </c>
-      <c r="I16" s="64"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="9"/>
       <c r="K16" s="30"/>
       <c r="M16" s="4"/>
@@ -1236,45 +1236,45 @@
         <v>8</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1285,15 +1285,15 @@
       <c r="C20" s="14"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1301,16 +1301,16 @@
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
       <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1321,30 +1321,30 @@
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="K22" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="10"/>
       <c r="K23" s="5"/>
       <c r="L23" s="34"/>
@@ -1359,12 +1359,12 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1434,18 +1434,18 @@
     <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="9"/>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="49"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
       <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1473,6 +1473,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="F20:L20"/>
     <mergeCell ref="G11:J11"/>
     <mergeCell ref="D29:M29"/>
     <mergeCell ref="E21:L21"/>
@@ -1489,13 +1496,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="F20:L20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.47" right="0.39" top="0.63" bottom="0.22" header="0.2" footer="0.17"/>

--- a/Meeting_Materials/Jayden_Yap_Jia_Yu_Application_to_Employ_Research_Assistants_Form.xlsx
+++ b/Meeting_Materials/Jayden_Yap_Jia_Yu_Application_to_Employ_Research_Assistants_Form.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albertlor\Academic\URECA\Meeting_Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B17B42-DACD-41D0-AB89-70B5C8735AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E98F61-C1B4-42FB-915C-46240D97AD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Job Title:</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Data Collection in Construction Site</t>
-  </si>
-  <si>
-    <t>30/6/2023</t>
   </si>
   <si>
     <t>MAE</t>
@@ -929,7 +926,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1094,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="57">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="58"/>
@@ -1107,8 +1104,8 @@
       <c r="J9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="59" t="s">
-        <v>29</v>
+      <c r="K9" s="59">
+        <v>45138</v>
       </c>
       <c r="L9" s="56"/>
       <c r="M9" s="4"/>
@@ -1138,7 +1135,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="G11" s="41">
-        <v>36.75</v>
+        <v>20.25</v>
       </c>
       <c r="H11" s="41"/>
       <c r="I11" s="41"/>
@@ -1222,7 +1219,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="60">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="I16" s="60"/>
       <c r="J16" s="9"/>
@@ -1286,7 +1283,7 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="62"/>
       <c r="H20" s="62"/>
@@ -1322,7 +1319,7 @@
       <c r="D22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" s="62"/>
       <c r="H22" s="62"/>
@@ -1331,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="K22" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L22" s="62"/>
       <c r="M22" s="4"/>
